--- a/地图事件.xlsx
+++ b/地图事件.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27990\Desktop\北风熔炉\系统文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE06BB8-3E3E-45EE-BE98-36CFA03C4EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C078E213-5AF1-464E-8C80-0514D7C780D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="2" r:id="rId1"/>
     <sheet name="功能" sheetId="1" r:id="rId2"/>
-    <sheet name="神秘事件" sheetId="3" r:id="rId3"/>
+    <sheet name="填充规则" sheetId="4" r:id="rId3"/>
+    <sheet name="神秘事件" sheetId="3" r:id="rId4"/>
+    <sheet name="商店" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,18 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>挑战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战决定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神秘事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,26 +107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能/装备/道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北风营地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复生命/强化技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉营地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回复生命/强化装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,18 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货币/技能/装备/道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫师营地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得遗物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不同事件在地图上会对应不同的图例或说明，下图为主界面布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看事件时（以小怪为例）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击前往事件时：出现画圈动画随后进入事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,18 +228,6 @@
   </si>
   <si>
     <t>事件表说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募队友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募新队友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,12 +434,312 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>所有类型事件的简单介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看事件时的互动表现（以小怪为例）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备/道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能/道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币/技能/装备/遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师神像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-7层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层数和事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.第1层必定为小怪房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不进入事件随机池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.第8层必定为巫师神像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.前4层不出现精英怪和营地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.前3层不出现精英怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀戮尖塔事件参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母房间规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若父母房间为精英怪、营地、北风商店、熔炉商店，则该房间不能与父母房间同类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个章节共三个部分，其中：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一部分，8层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二部分，9层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.第9层必定为巫师神像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.第1层必定为营地房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.第9层必定为BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三部分，9层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前两个部分的最后一层和下一部分的第一层链接。第三部分的最后一层通过后进入下一地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.第8层不出现小怪和精英怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有商店都售卖3个遗物和4个道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风商店技能构成：每个角色对应的2个职业技能+2个通用技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风商店售卖8个技能，熔炉商店售卖8件装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉商店装备构成：每个部位（武器、防具、饰品）各2件，其它类型（如大型装备）2件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据章节调整装备稀有度出现概率，其中第一章为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通：55%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有：35%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗：10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店价格：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础值1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础值2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础值3</t>
+  </si>
+  <si>
+    <t>基础值4</t>
+  </si>
+  <si>
+    <t>基础值5</t>
+  </si>
+  <si>
+    <t>基础值6</t>
+  </si>
+  <si>
+    <t>稀有装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础值7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础值8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买技能后，将获得对应技能，进入技能替换界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而购买其它道具后，将道具直接放入背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标放置在物品上时会显示描述，按下shift或右键锁定描述面板，以进一步查看面板内的信息，再次按下shift或点击其它区域取消锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买后，商店界面显示已售出，不能继续购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,8 +836,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +887,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -639,6 +931,22 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -738,14 +1046,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>90594</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>118299</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>118298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -782,13 +1090,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>681403</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>424961</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>60564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -826,14 +1134,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>29309</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>36634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>109904</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -870,14 +1178,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>29307</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>300403</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>29707</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>29706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -914,13 +1222,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>43962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>87923</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>75218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -958,14 +1266,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>27843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123093</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>59100</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>59099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1002,14 +1310,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>681404</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>250289</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>139081</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>139080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1046,13 +1354,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>21979</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>146263</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>123476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1090,14 +1398,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>21980</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>109905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>439616</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>101540</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>101539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1134,13 +1442,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>65942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>589405</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>89477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1178,13 +1486,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>337039</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>51289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>471086</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1222,14 +1530,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>7326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>221979</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>124474</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>124473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1266,6 +1574,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>675866</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5827D4A3-31D6-BF1B-4CB7-7A84301EB9B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7541172" y="1355623"/>
+          <a:ext cx="3382280" cy="3993272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1539,6 +1896,187 @@
         <a:xfrm>
           <a:off x="5467350" y="10763251"/>
           <a:ext cx="4733925" cy="3373974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373673</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483576</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754E73D3-5078-912C-422B-2A6FAA4AE4AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373673" y="1025770"/>
+          <a:ext cx="6997211" cy="3951284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>578826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>503309</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1FBC39-4B9F-51D8-D3C9-7108B90EACED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7466134" y="1128347"/>
+          <a:ext cx="6811790" cy="3824653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>432288</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>174902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB4F0A7-A816-83A9-2F48-4082EC291D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="696057" y="9525002"/>
+          <a:ext cx="3179885" cy="2233765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>131886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>659423</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>108928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96AF51F5-5085-5F0B-0CC2-87680BDDDF84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4418135" y="9517674"/>
+          <a:ext cx="3128596" cy="2175119"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1871,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115"/>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M120" sqref="M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1888,65 +2426,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="3" spans="1:5" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1954,13 +2483,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1968,13 +2497,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1982,13 +2511,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1996,13 +2525,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2010,13 +2539,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2024,184 +2553,170 @@
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="49" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>34</v>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
         <v>37</v>
-      </c>
-      <c r="F53" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" t="s">
-        <v>43</v>
-      </c>
-      <c r="N62" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="N61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>45</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B88" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G96" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G104" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G105" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G106" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G107" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G108" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G110" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G111" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G112" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="B116" s="8" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B115" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="B125" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2212,11 +2727,512 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C3982F-E76C-41C3-AB0A-3ACDE6CF5F5B}">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="H10" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="21">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="H11" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="16">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE71906-0376-414D-8A63-EDE1F43936BA}">
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="W52" sqref="W52"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2226,27 +3242,27 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M13" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="O31" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
@@ -2258,28 +3274,28 @@
     </row>
     <row r="33" spans="15:21" ht="18" x14ac:dyDescent="0.25">
       <c r="O33" s="11" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
     </row>
     <row r="34" spans="15:21" ht="18" x14ac:dyDescent="0.25">
       <c r="O34" s="11" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
     </row>
     <row r="35" spans="15:21" ht="18" x14ac:dyDescent="0.25">
       <c r="O35" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
     </row>
     <row r="36" spans="15:21" ht="18" x14ac:dyDescent="0.25">
       <c r="O36" s="11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
@@ -2290,14 +3306,14 @@
     </row>
     <row r="38" spans="15:21" ht="18" x14ac:dyDescent="0.25">
       <c r="O38" s="11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
     </row>
     <row r="39" spans="15:21" ht="18" x14ac:dyDescent="0.25">
       <c r="O39" s="11" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
@@ -2309,14 +3325,14 @@
     </row>
     <row r="41" spans="15:21" ht="18" x14ac:dyDescent="0.25">
       <c r="O41" s="11" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
     </row>
     <row r="42" spans="15:21" ht="18" x14ac:dyDescent="0.25">
       <c r="O42" s="11" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
@@ -2332,7 +3348,7 @@
     </row>
     <row r="44" spans="15:21" ht="18" x14ac:dyDescent="0.25">
       <c r="O44" s="11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
@@ -2381,11 +3397,11 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="R49" s="8"/>
       <c r="S49" s="8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U49" s="11"/>
     </row>
@@ -2393,11 +3409,11 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
@@ -2408,11 +3424,11 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="R51" s="11"/>
       <c r="S51" s="11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
@@ -2423,11 +3439,11 @@
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="R52" s="11"/>
       <c r="S52" s="11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
@@ -2436,11 +3452,11 @@
     </row>
     <row r="53" spans="15:25" ht="18" x14ac:dyDescent="0.25">
       <c r="Q53" s="11" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="R53" s="11"/>
       <c r="S53" s="11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
@@ -2451,14 +3467,14 @@
     </row>
     <row r="54" spans="15:25" ht="18" x14ac:dyDescent="0.25">
       <c r="Q54" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="S54" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="T54" s="11"/>
       <c r="U54" s="11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
@@ -2467,10 +3483,10 @@
     </row>
     <row r="55" spans="15:25" ht="18" x14ac:dyDescent="0.25">
       <c r="Q55" s="11" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
@@ -2492,11 +3508,11 @@
     </row>
     <row r="57" spans="15:25" ht="18" x14ac:dyDescent="0.25">
       <c r="Q57" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="R57" s="9"/>
       <c r="S57" s="8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
@@ -2507,11 +3523,11 @@
     </row>
     <row r="58" spans="15:25" ht="18" x14ac:dyDescent="0.25">
       <c r="Q58" s="11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
@@ -2522,11 +3538,11 @@
     </row>
     <row r="59" spans="15:25" ht="18" x14ac:dyDescent="0.25">
       <c r="Q59" s="11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="R59" s="11"/>
       <c r="S59" s="11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
@@ -2537,10 +3553,10 @@
     </row>
     <row r="60" spans="15:25" ht="18" x14ac:dyDescent="0.25">
       <c r="Q60" s="11" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="S60" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
@@ -2551,34 +3567,221 @@
     </row>
     <row r="61" spans="15:25" ht="18" x14ac:dyDescent="0.25">
       <c r="Q61" s="11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="S61" s="11" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
     </row>
     <row r="62" spans="15:25" ht="18" x14ac:dyDescent="0.25">
       <c r="Q62" s="11" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="S62" s="11" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
     </row>
     <row r="63" spans="15:25" ht="18" x14ac:dyDescent="0.25">
       <c r="Q63" s="11" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="S63" s="11" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="V63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
+    </row>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BEFB2A-7895-4547-87C2-0C7A489325A2}">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="5" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/地图事件.xlsx
+++ b/地图事件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C078E213-5AF1-464E-8C80-0514D7C780D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB662FC-5613-4D7C-8965-8EE108935AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -732,6 +732,14 @@
   </si>
   <si>
     <t>购买后，商店界面显示已售出，不能继续购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟房间规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若兄弟房间为精英怪、营地、北风商店、熔炉商店，则该房间不能与兄弟房间同类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2728,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C3982F-E76C-41C3-AB0A-3ACDE6CF5F5B}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3217,6 +3225,16 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3623,7 +3641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BEFB2A-7895-4547-87C2-0C7A489325A2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>

--- a/地图事件.xlsx
+++ b/地图事件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB662FC-5613-4D7C-8965-8EE108935AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F327E5F3-A6F9-419F-8D60-B5A8C6241953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="填充规则" sheetId="4" r:id="rId3"/>
     <sheet name="神秘事件" sheetId="3" r:id="rId4"/>
     <sheet name="商店" sheetId="5" r:id="rId5"/>
+    <sheet name="营地" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="179">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,12 +743,36 @@
     <t>若兄弟房间为精英怪、营地、北风商店、熔炉商店，则该房间不能与兄弟房间同类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>回复生命/强化技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.强化1个技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.为1名角色回复70%生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.为所有角色回复30%生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础的营地为玩家提供3个选项，玩家可以从中选择一个或者直接离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择后，所有选项置灰，只能选择离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +909,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -917,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -955,6 +988,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2096,6 +2130,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246508</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFDD91C-3778-7983-6C42-BE0175F3A235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="1581150"/>
+          <a:ext cx="9133333" cy="5123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79E235A0-71C7-4C37-A2A1-046069DD2CB2}" name="表1" displayName="表1" ref="B3:D4" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B3:D4" xr:uid="{7E992A80-FE6E-45DC-952E-F99398142214}"/>
@@ -2738,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C3982F-E76C-41C3-AB0A-3ACDE6CF5F5B}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2865,7 +2948,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="H9" s="10">
         <v>15</v>
@@ -3249,7 +3332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE71906-0376-414D-8A63-EDE1F43936BA}">
   <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3641,8 +3724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BEFB2A-7895-4547-87C2-0C7A489325A2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3806,4 +3889,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A245E0EB-34E2-4768-BF47-14B5A34615D4}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="23" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>